--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200521/互联网专线新增路由模式和交换模式（206242766）/互联网专线新增路由模式和交换模式（206242766）测试结果.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200521/互联网专线新增路由模式和交换模式（206242766）/互联网专线新增路由模式和交换模式（206242766）测试结果.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试通过/不通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>专网宽带新装交换模式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -201,26 +197,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>专网宽带新装交换模式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>新CRM</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>低级功能缺陷</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>专网宽带新装交换模式完工后，新CRM的客户资产下没有显示该完工设备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>专网宽带修改交换模式改路由模式</t>
   </si>
   <si>
@@ -236,19 +220,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>综资未返回交换模式改路由模式订单的互联IP字段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止测试结束，新CRM依旧未解决该问题。目前受理改性能，拆机订单，是通过在客户资产界面直接搜索设备号，进行操作</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>WMZ2020052205497990</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WMZ2020052205497990</t>
+    <t>WMZ2020052305520425</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综资未返回交换模式改路由模式订单的局端IP信息字段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMZ2020052505536997</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -483,13 +467,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>70139</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1488499</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1103,13 +1087,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="32" t="s">
@@ -1392,13 +1376,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="32"/>
@@ -1655,12 +1639,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="32"/>
       <c r="G4" s="33"/>
@@ -1935,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,97 +1972,81 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="53.25" customHeight="1">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="48">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11">
+        <v>43973.4375</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="11">
+        <v>43973.460416666669</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="11">
-        <v>43972.6875</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="48">
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="24">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8"/>
       <c r="D3" s="11">
-        <v>43973.4375</v>
+        <v>43973.46875</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="F3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="11">
-        <v>43973.460416666669</v>
+        <v>43976.381944444445</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="24">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="11">
-        <v>43973.46875</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="28" t="s">
-        <v>44</v>
-      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1">
       <c r="A5" s="10"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2088,7 +2058,7 @@
       <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2144,17 +2114,16 @@
       <c r="I10" s="11"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="10"/>
@@ -2376,17 +2345,6 @@
       <c r="I31" s="12"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
